--- a/Data Dictionaries (Upload Here)/DMHAS/DMHAS_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/DMHAS/DMHAS_Data_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhaima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\Data Dictionaries (Upload Here)\DMHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE7B5B-E032-4E78-9CED-385117EB8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE242B11-F019-4F23-85B4-C954A276E931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Template" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$1:$G$136</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$E$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Template!$1:$1</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="278">
   <si>
     <t>Data Element Definition</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>Date on which Client was admitted the program entered in 'Program ID' Data Element.</t>
-  </si>
-  <si>
-    <t>All  Treatment Programs</t>
   </si>
   <si>
     <t>Tobacco Use</t>
@@ -1677,7 +1674,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>18</v>
@@ -1775,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>19</v>
@@ -2538,10 +2535,10 @@
         <v>80</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>31</v>
@@ -2555,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>30</v>
@@ -2575,13 +2572,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>28</v>
@@ -2592,16 +2589,16 @@
         <v>7</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>30</v>
@@ -2615,13 +2612,13 @@
         <v>81</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>28</v>
@@ -2635,13 +2632,13 @@
         <v>81</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>28</v>
@@ -2655,13 +2652,13 @@
         <v>81</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>28</v>
@@ -2675,13 +2672,13 @@
         <v>81</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>28</v>
@@ -2695,13 +2692,13 @@
         <v>81</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>31</v>
@@ -2715,13 +2712,13 @@
         <v>81</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>31</v>
@@ -2735,13 +2732,13 @@
         <v>81</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>31</v>
@@ -2755,13 +2752,13 @@
         <v>81</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>28</v>
@@ -2775,13 +2772,13 @@
         <v>81</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>28</v>
@@ -2795,13 +2792,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>30</v>
@@ -2815,13 +2812,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>28</v>
@@ -2835,13 +2832,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>28</v>
@@ -2855,13 +2852,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>28</v>
@@ -2875,13 +2872,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>28</v>
@@ -2895,13 +2892,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>28</v>
@@ -2915,13 +2912,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>28</v>
@@ -2935,13 +2932,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>31</v>
@@ -2955,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>28</v>
@@ -2975,13 +2972,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>28</v>
@@ -2995,13 +2992,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>28</v>
@@ -3015,13 +3012,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>31</v>
@@ -3035,13 +3032,13 @@
         <v>81</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>28</v>
@@ -3055,13 +3052,13 @@
         <v>81</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>28</v>
@@ -3075,13 +3072,13 @@
         <v>81</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>28</v>
@@ -3095,13 +3092,13 @@
         <v>81</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>28</v>
@@ -3115,13 +3112,13 @@
         <v>81</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>28</v>
@@ -3135,13 +3132,13 @@
         <v>81</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>28</v>
@@ -3155,13 +3152,13 @@
         <v>81</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>28</v>
@@ -3175,13 +3172,13 @@
         <v>81</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>28</v>
@@ -3195,13 +3192,13 @@
         <v>81</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>28</v>
@@ -3215,13 +3212,13 @@
         <v>81</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>28</v>
@@ -3235,13 +3232,13 @@
         <v>81</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>28</v>
@@ -3255,13 +3252,13 @@
         <v>81</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>28</v>
@@ -3275,13 +3272,13 @@
         <v>81</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>28</v>
@@ -3295,13 +3292,13 @@
         <v>81</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>28</v>
@@ -3315,13 +3312,13 @@
         <v>81</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D80" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>28</v>
@@ -3335,13 +3332,13 @@
         <v>81</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>28</v>
@@ -3355,13 +3352,13 @@
         <v>81</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>28</v>
@@ -3375,13 +3372,13 @@
         <v>81</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>28</v>
@@ -3395,13 +3392,13 @@
         <v>81</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>28</v>
@@ -3415,13 +3412,13 @@
         <v>81</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>28</v>
@@ -3435,13 +3432,13 @@
         <v>81</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>29</v>
@@ -3455,13 +3452,13 @@
         <v>81</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>30</v>
@@ -3475,13 +3472,13 @@
         <v>81</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>65</v>
@@ -3495,13 +3492,13 @@
         <v>81</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>65</v>
@@ -3515,13 +3512,13 @@
         <v>81</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>65</v>
@@ -3535,13 +3532,13 @@
         <v>81</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>65</v>
@@ -3555,13 +3552,13 @@
         <v>81</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>65</v>
@@ -3575,13 +3572,13 @@
         <v>81</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>65</v>
@@ -3595,13 +3592,13 @@
         <v>81</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>65</v>
@@ -3615,13 +3612,13 @@
         <v>81</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>65</v>
@@ -3635,13 +3632,13 @@
         <v>81</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>65</v>
@@ -3655,13 +3652,13 @@
         <v>81</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>65</v>
@@ -3675,13 +3672,13 @@
         <v>81</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>65</v>
@@ -3695,13 +3692,13 @@
         <v>81</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>65</v>
@@ -3715,13 +3712,13 @@
         <v>81</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>65</v>
@@ -3735,13 +3732,13 @@
         <v>81</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>65</v>
@@ -3755,13 +3752,13 @@
         <v>81</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>65</v>
@@ -3775,13 +3772,13 @@
         <v>81</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>65</v>
@@ -3795,13 +3792,13 @@
         <v>81</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>65</v>
@@ -3815,13 +3812,13 @@
         <v>81</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>65</v>
@@ -3835,13 +3832,13 @@
         <v>81</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>65</v>
@@ -3855,13 +3852,13 @@
         <v>81</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>65</v>
@@ -3875,13 +3872,13 @@
         <v>81</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>65</v>
@@ -3895,13 +3892,13 @@
         <v>81</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>65</v>
@@ -3915,13 +3912,13 @@
         <v>81</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>65</v>
@@ -3935,13 +3932,13 @@
         <v>81</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>65</v>
@@ -3955,13 +3952,13 @@
         <v>81</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>65</v>
@@ -3975,13 +3972,13 @@
         <v>81</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>65</v>
@@ -3995,16 +3992,16 @@
         <v>81</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E114" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F114" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4012,16 +4009,16 @@
         <v>7</v>
       </c>
       <c r="B115" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="D115" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>29</v>
@@ -4035,13 +4032,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>30</v>
@@ -4055,13 +4052,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>30</v>
@@ -4075,13 +4072,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>28</v>
@@ -4095,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>28</v>
@@ -4112,16 +4109,16 @@
         <v>7</v>
       </c>
       <c r="B120" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>246</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>31</v>
@@ -4132,16 +4129,16 @@
         <v>7</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>31</v>
@@ -4152,16 +4149,16 @@
         <v>7</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>28</v>
@@ -4172,16 +4169,16 @@
         <v>7</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>28</v>
@@ -4192,16 +4189,16 @@
         <v>7</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>65</v>
@@ -4218,10 +4215,10 @@
         <v>9</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>28</v>
@@ -4238,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>29</v>
@@ -4258,10 +4255,10 @@
         <v>9</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>30</v>
@@ -4278,10 +4275,10 @@
         <v>9</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>30</v>
@@ -4298,10 +4295,10 @@
         <v>9</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>28</v>
@@ -4318,10 +4315,10 @@
         <v>9</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>29</v>
@@ -4338,10 +4335,10 @@
         <v>9</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>30</v>
@@ -4358,10 +4355,10 @@
         <v>9</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>30</v>
@@ -4378,10 +4375,10 @@
         <v>9</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>28</v>
@@ -4398,10 +4395,10 @@
         <v>9</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>29</v>
@@ -4418,10 +4415,10 @@
         <v>9</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>30</v>
@@ -4438,16 +4435,17 @@
         <v>9</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G136" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
